--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_8_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165836.177964049</v>
+        <v>1165388.591225961</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17657175.71523435</v>
+        <v>17657175.71523436</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230361.9932825534</v>
+        <v>230361.9932825536</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>274.2719444134143</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>75.79903779981336</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -725,7 +725,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>152.355512532834</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.26176538196644</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
+        <v>31.5506869772999</v>
+      </c>
+      <c r="E5" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="E5" t="n">
-        <v>29.43699739328775</v>
-      </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>308.0653468017233</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>305.08169294201</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>106.062636650466</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>327.2879775827834</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>22.17672409704119</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1300,16 +1300,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1385,7 +1385,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334627</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1543,7 +1543,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
-        <v>78.87258048141429</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T13" t="n">
-        <v>243.1546752508501</v>
+        <v>9.108788804181959</v>
       </c>
       <c r="U13" t="n">
         <v>275.645275292109</v>
@@ -1622,7 +1622,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H14" t="n">
-        <v>284.8176194334632</v>
+        <v>284.8176194334627</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>156.56410959728</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U16" t="n">
         <v>275.645275292109</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>184.5499621552393</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -2017,7 +2017,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>60.46791780450985</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>184.0775610783649</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U19" t="n">
         <v>275.645275292109</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.2450776617484</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H20" t="n">
         <v>284.8176194334632</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268134</v>
       </c>
       <c r="T20" t="n">
         <v>217.2590655368476</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2254,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7.243238839973335</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>78.87258048141338</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T22" t="n">
         <v>243.1546752508501</v>
@@ -2369,7 +2369,7 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T23" t="n">
-        <v>217.259065536848</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U23" t="n">
         <v>256.6189776240556</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>78.87258048141294</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T25" t="n">
         <v>243.1546752508501</v>
@@ -2728,7 +2728,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>78.87258048141305</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>78.87258048141338</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.1546752508501</v>
@@ -3317,7 +3317,7 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U35" t="n">
         <v>256.6189776240556</v>
@@ -3439,7 +3439,7 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>78.87258048141305</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>78.87258048141294</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.1546752508501</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
-        <v>156.56410959728</v>
+        <v>60.46791780451015</v>
       </c>
       <c r="T40" t="n">
-        <v>165.4631461349833</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U40" t="n">
         <v>275.645275292109</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>78.87258048141294</v>
+        <v>60.46791780451015</v>
       </c>
       <c r="T43" t="n">
         <v>243.1546752508501</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932883</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>78.87258048141294</v>
+        <v>78.87258048141338</v>
       </c>
       <c r="T46" t="n">
         <v>243.1546752508501</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>1395.53913136414</v>
       </c>
       <c r="C2" t="n">
-        <v>653.677557604439</v>
+        <v>966.9574571014084</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>538.3757828386767</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4343,7 +4343,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.0387928251154</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>760.5269815952424</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C4" t="n">
-        <v>587.9652700784674</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D4" t="n">
-        <v>422.0872772799901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>252.3292735307273</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>75.62221949248354</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4486,52 +4486,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1179.765271000121</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.3456003142296</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550.6055673650617</v>
+        <v>1350.843827503015</v>
       </c>
       <c r="C5" t="n">
-        <v>516.503498588889</v>
+        <v>922.2621532402836</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O5" t="n">
         <v>687.9235674375537</v>
@@ -4607,10 +4607,10 @@
         <v>1696.368379531855</v>
       </c>
       <c r="X5" t="n">
-        <v>1385.191261550316</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.9051378499695</v>
+        <v>1373.102993947519</v>
       </c>
     </row>
     <row r="6">
@@ -4647,7 +4647,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
         <v>804.6185656731816</v>
@@ -4659,10 +4659,10 @@
         <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
         <v>1580.010651986078</v>
@@ -4723,52 +4723,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>91.74450617142992</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>1590.049453665805</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>846.6806259663152</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>418.0989517035836</v>
       </c>
       <c r="D8" t="n">
         <v>87.50503495329731</v>
@@ -4802,22 +4802,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4841,13 +4841,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4884,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>770.7035002010737</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>598.1417886842986</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>432.2637958858213</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4987,25 +4987,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1265.915656964706</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1020.523902298118</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>793.1042316122264</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D11" t="n">
         <v>1652.736628213913</v>
@@ -5027,10 +5027,10 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776299</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5039,49 +5039,49 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J11" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K11" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.907972638611</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M11" t="n">
-        <v>2414.079876557081</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N11" t="n">
-        <v>3564.325281354079</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O11" t="n">
-        <v>4567.653220868006</v>
+        <v>3554.479381632103</v>
       </c>
       <c r="P11" t="n">
-        <v>4587.409736271163</v>
+        <v>4402.545771868657</v>
       </c>
       <c r="Q11" t="n">
-        <v>4929.327483119182</v>
+        <v>4963.880878114751</v>
       </c>
       <c r="R11" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S11" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T11" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U11" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W11" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y11" t="n">
         <v>2953.088456340953</v>
@@ -5097,46 +5097,46 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F12" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G12" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>174.1987030937859</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>186.0687738537931</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L12" t="n">
-        <v>202.029548848338</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M12" t="n">
-        <v>220.6550204458506</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N12" t="n">
-        <v>239.7734528547288</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O12" t="n">
-        <v>257.2630834199056</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P12" t="n">
-        <v>1091.023220340726</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
         <v>1641.145501977371</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.5753929162413</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C13" t="n">
-        <v>780.0136813994662</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D13" t="n">
-        <v>614.1356886009889</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E13" t="n">
-        <v>444.3776848517263</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F13" t="n">
-        <v>267.6706308134825</v>
+        <v>407.0137567265108</v>
       </c>
       <c r="G13" t="n">
-        <v>102.1422344933241</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H13" t="n">
         <v>102.1422344933241</v>
@@ -5203,46 +5203,46 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M13" t="n">
         <v>1371.513837086633</v>
       </c>
       <c r="N13" t="n">
-        <v>1823.203308416964</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O13" t="n">
-        <v>2251.583306098095</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P13" t="n">
-        <v>2606.543750200286</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2779.896976828332</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2779.896976828332</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.227703614783</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.616920533116</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.187349530986</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.231841401416</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.205436987708</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.81368232112</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.394011635228</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E14" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F14" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G14" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776299</v>
       </c>
       <c r="H14" t="n">
         <v>102.1422344933241</v>
@@ -5282,46 +5282,46 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L14" t="n">
-        <v>2502.512952049706</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M14" t="n">
-        <v>2526.637020757626</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N14" t="n">
-        <v>2551.151442118176</v>
+        <v>2516.598047122606</v>
       </c>
       <c r="O14" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636532</v>
       </c>
       <c r="P14" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873086</v>
       </c>
       <c r="Q14" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.32748311918</v>
       </c>
       <c r="R14" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S14" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T14" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U14" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V14" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W14" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X14" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="15">
@@ -5334,19 +5334,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F15" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G15" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
@@ -5355,25 +5355,25 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>830.2853723931586</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>1040.378186925049</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O15" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P15" t="n">
-        <v>1091.023220340726</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
         <v>1641.145501977371</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1178.687535441156</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C16" t="n">
-        <v>1006.125823924381</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D16" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E16" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F16" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G16" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H16" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5440,10 +5440,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M16" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N16" t="n">
         <v>1823.203308416962</v>
@@ -5452,7 +5452,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P16" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q16" t="n">
         <v>2779.896976828331</v>
@@ -5461,25 +5461,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2621.751411578553</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T16" t="n">
-        <v>2621.751411578553</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U16" t="n">
-        <v>2343.321840576423</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V16" t="n">
-        <v>2056.366332446853</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W16" t="n">
-        <v>1784.339928033145</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X16" t="n">
-        <v>1597.925824846035</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.506154160143</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C17" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F17" t="n">
-        <v>791.094453781417</v>
+        <v>791.0944537814157</v>
       </c>
       <c r="G17" t="n">
         <v>389.8367995776304</v>
@@ -5513,52 +5513,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>315.1777780947115</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K17" t="n">
-        <v>332.654002023324</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>354.3348031601971</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M17" t="n">
-        <v>1535.506707078667</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N17" t="n">
-        <v>2685.752111875665</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O17" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P17" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q17" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R17" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U17" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W17" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="18">
@@ -5571,19 +5571,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C18" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D18" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E18" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F18" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G18" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H18" t="n">
         <v>102.1422344933241</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.91851882927</v>
+        <v>1013.654097769282</v>
       </c>
       <c r="C19" t="n">
-        <v>919.3568073124947</v>
+        <v>841.0923862525066</v>
       </c>
       <c r="D19" t="n">
-        <v>753.4788145140174</v>
+        <v>675.2143934540293</v>
       </c>
       <c r="E19" t="n">
-        <v>583.7208107647547</v>
+        <v>505.4563897047665</v>
       </c>
       <c r="F19" t="n">
-        <v>407.0137567265109</v>
+        <v>328.7493356665227</v>
       </c>
       <c r="G19" t="n">
-        <v>241.4853604063525</v>
+        <v>163.2209393463644</v>
       </c>
       <c r="H19" t="n">
         <v>102.1422344933241</v>
@@ -5677,10 +5677,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M19" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N19" t="n">
         <v>1823.203308416962</v>
@@ -5689,34 +5689,34 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P19" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q19" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R19" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S19" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="T19" t="n">
-        <v>2593.960046446144</v>
+        <v>2515.695625386156</v>
       </c>
       <c r="U19" t="n">
-        <v>2315.530475444014</v>
+        <v>2237.266054384026</v>
       </c>
       <c r="V19" t="n">
-        <v>2028.574967314445</v>
+        <v>1950.310546254457</v>
       </c>
       <c r="W19" t="n">
-        <v>1756.548562900736</v>
+        <v>1678.284141840748</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.156808234149</v>
+        <v>1432.892387174161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1283.737137548257</v>
+        <v>1205.472716488269</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C20" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E20" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F20" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G20" t="n">
         <v>389.8367995776304</v>
@@ -5756,25 +5756,25 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>2467.959557054137</v>
+        <v>2467.959557054136</v>
       </c>
       <c r="M20" t="n">
-        <v>2492.083625762056</v>
+        <v>2492.083625762055</v>
       </c>
       <c r="N20" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122606</v>
       </c>
       <c r="O20" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636532</v>
       </c>
       <c r="P20" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873086</v>
       </c>
       <c r="Q20" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.32748311918</v>
       </c>
       <c r="R20" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S20" t="n">
         <v>5026.654138178648</v>
@@ -5795,7 +5795,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="21">
@@ -5808,49 +5808,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C21" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D21" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E21" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F21" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G21" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H21" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J21" t="n">
-        <v>462.2401065289864</v>
+        <v>436.1764333685289</v>
       </c>
       <c r="K21" t="n">
-        <v>1005.791940332991</v>
+        <v>1128.780024198913</v>
       </c>
       <c r="L21" t="n">
-        <v>1021.752715327536</v>
+        <v>1144.740799193458</v>
       </c>
       <c r="M21" t="n">
-        <v>1040.378186925049</v>
+        <v>1163.366270790971</v>
       </c>
       <c r="N21" t="n">
-        <v>1059.496619333927</v>
+        <v>1182.484703199849</v>
       </c>
       <c r="O21" t="n">
-        <v>1076.986249899104</v>
+        <v>1199.974333765026</v>
       </c>
       <c r="P21" t="n">
-        <v>1091.023220340726</v>
+        <v>1214.011304206648</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.5753929162413</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C22" t="n">
-        <v>780.0136813994662</v>
+        <v>874.099100880012</v>
       </c>
       <c r="D22" t="n">
-        <v>614.1356886009889</v>
+        <v>708.2211080815347</v>
       </c>
       <c r="E22" t="n">
-        <v>444.3776848517263</v>
+        <v>538.463104332272</v>
       </c>
       <c r="F22" t="n">
-        <v>267.6706308134825</v>
+        <v>361.7560502940282</v>
       </c>
       <c r="G22" t="n">
-        <v>102.1422344933241</v>
+        <v>196.2276539738699</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I22" t="n">
         <v>102.1422344933241</v>
@@ -5914,7 +5914,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M22" t="n">
         <v>1371.513837086633</v>
@@ -5935,25 +5935,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.227703614783</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.616920533116</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.187349530986</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.231841401416</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.205436987708</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.81368232112</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.394011635228</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C23" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D23" t="n">
         <v>1652.736628213913</v>
@@ -5987,19 +5987,19 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>553.9456687731839</v>
+        <v>519.3922737776142</v>
       </c>
       <c r="K23" t="n">
-        <v>1405.772184659974</v>
+        <v>1371.218789664405</v>
       </c>
       <c r="L23" t="n">
-        <v>2502.512952049706</v>
+        <v>2467.959557054137</v>
       </c>
       <c r="M23" t="n">
-        <v>2526.637020757626</v>
+        <v>2492.083625762056</v>
       </c>
       <c r="N23" t="n">
-        <v>2551.151442118176</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O23" t="n">
         <v>3519.925986636533</v>
@@ -6011,25 +6011,25 @@
         <v>4929.327483119181</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T23" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U23" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W23" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X23" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y23" t="n">
         <v>2953.088456340953</v>
@@ -6045,19 +6045,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C24" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D24" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E24" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F24" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G24" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H24" t="n">
         <v>102.1422344933241</v>
@@ -6151,7 +6151,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M25" t="n">
         <v>1371.513837086633</v>
@@ -6163,7 +6163,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P25" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q25" t="n">
         <v>2779.896976828331</v>
@@ -6227,16 +6227,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>593.1026938386694</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M26" t="n">
-        <v>1774.27459775714</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N26" t="n">
-        <v>2924.520002554137</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O26" t="n">
         <v>3519.925986636534</v>
@@ -6300,31 +6300,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I27" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L27" t="n">
-        <v>139.4489541568687</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M27" t="n">
-        <v>158.0744257543812</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N27" t="n">
-        <v>1411.020129723566</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O27" t="n">
-        <v>1428.509760288743</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P27" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
         <v>1762.882278270333</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.5753929162413</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C28" t="n">
-        <v>780.0136813994662</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D28" t="n">
-        <v>614.1356886009889</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E28" t="n">
-        <v>444.3776848517263</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F28" t="n">
-        <v>267.6706308134825</v>
+        <v>347.339904027031</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1422344933241</v>
+        <v>181.8115077068727</v>
       </c>
       <c r="H28" t="n">
         <v>102.1422344933241</v>
@@ -6388,7 +6388,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L28" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M28" t="n">
         <v>1371.513837086633</v>
@@ -6409,25 +6409,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.227703614783</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.616920533116</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.187349530986</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.231841401416</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.205436987708</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.81368232112</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.394011635228</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C29" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G29" t="n">
         <v>389.8367995776307</v>
@@ -6461,22 +6461,22 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J29" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K29" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L29" t="n">
-        <v>992.1982983439294</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M29" t="n">
-        <v>2173.3702022624</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N29" t="n">
-        <v>3323.615607059398</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>4326.943546573324</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
         <v>4367.992376873088</v>
@@ -6497,16 +6497,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W29" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L30" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M30" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N30" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P30" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6625,7 +6625,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L31" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M31" t="n">
         <v>1371.513837086633</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G32" t="n">
         <v>389.8367995776307</v>
@@ -6698,16 +6698,16 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K32" t="n">
-        <v>1320.547772480818</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L32" t="n">
-        <v>1342.228573617691</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M32" t="n">
-        <v>1366.35264232561</v>
+        <v>2091.382333304708</v>
       </c>
       <c r="N32" t="n">
         <v>2516.598047122608</v>
@@ -6734,16 +6734,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>123.4881791623238</v>
+        <v>1154.843697359371</v>
       </c>
       <c r="L33" t="n">
-        <v>859.9412655747533</v>
+        <v>1170.804472353916</v>
       </c>
       <c r="M33" t="n">
-        <v>878.5667371722658</v>
+        <v>1189.429943951428</v>
       </c>
       <c r="N33" t="n">
-        <v>897.685169581144</v>
+        <v>1208.548376360307</v>
       </c>
       <c r="O33" t="n">
-        <v>915.1748001463208</v>
+        <v>1226.038006925483</v>
       </c>
       <c r="P33" t="n">
-        <v>1748.934937067141</v>
+        <v>1240.074977367105</v>
       </c>
       <c r="Q33" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R33" t="n">
         <v>1762.882278270333</v>
@@ -6862,7 +6862,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M34" t="n">
         <v>1371.513837086633</v>
@@ -6914,7 +6914,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
         <v>1652.736628213913</v>
@@ -6923,7 +6923,7 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G35" t="n">
         <v>389.8367995776304</v>
@@ -6932,25 +6932,25 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I35" t="n">
-        <v>107.030376497994</v>
+        <v>107.0303764979941</v>
       </c>
       <c r="J35" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>136.1672052488785</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1232.907972638611</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M35" t="n">
-        <v>1366.35264232561</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N35" t="n">
-        <v>2516.598047122608</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P35" t="n">
         <v>4367.992376873087</v>
@@ -6959,25 +6959,25 @@
         <v>4929.327483119181</v>
       </c>
       <c r="R35" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
         <v>2953.088456340953</v>
@@ -6993,19 +6993,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C36" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D36" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E36" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F36" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G36" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H36" t="n">
         <v>102.1422344933241</v>
@@ -7017,19 +7017,19 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L36" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M36" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N36" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O36" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P36" t="n">
         <v>1091.023220340725</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.5753929162413</v>
+        <v>1032.24466612979</v>
       </c>
       <c r="C37" t="n">
-        <v>780.0136813994662</v>
+        <v>859.6829546130149</v>
       </c>
       <c r="D37" t="n">
-        <v>614.1356886009889</v>
+        <v>693.8049618145376</v>
       </c>
       <c r="E37" t="n">
-        <v>444.3776848517263</v>
+        <v>524.0469580652748</v>
       </c>
       <c r="F37" t="n">
-        <v>267.6706308134825</v>
+        <v>347.339904027031</v>
       </c>
       <c r="G37" t="n">
-        <v>102.1422344933241</v>
+        <v>181.8115077068727</v>
       </c>
       <c r="H37" t="n">
         <v>102.1422344933241</v>
@@ -7099,7 +7099,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M37" t="n">
         <v>1371.513837086633</v>
@@ -7111,7 +7111,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P37" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q37" t="n">
         <v>2779.896976828331</v>
@@ -7120,25 +7120,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.227703614783</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.616920533116</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.187349530986</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.231841401416</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.205436987708</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.81368232112</v>
+        <v>1451.482955534669</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.394011635228</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="38">
@@ -7178,13 +7178,13 @@
         <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>2502.512952049706</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M38" t="n">
-        <v>2526.637020757626</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N38" t="n">
-        <v>2551.151442118176</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O38" t="n">
         <v>3519.925986636533</v>
@@ -7336,7 +7336,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L40" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M40" t="n">
         <v>1371.513837086633</v>
@@ -7354,10 +7354,10 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R40" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S40" t="n">
-        <v>2621.751411578553</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T40" t="n">
         <v>2454.616920533116</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814171</v>
       </c>
       <c r="G41" t="n">
         <v>389.8367995776307</v>
@@ -7409,22 +7409,22 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K41" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L41" t="n">
-        <v>2502.512952049706</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M41" t="n">
-        <v>2526.637020757626</v>
+        <v>2091.382333304708</v>
       </c>
       <c r="N41" t="n">
-        <v>2551.151442118176</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O41" t="n">
-        <v>3519.925986636535</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P41" t="n">
         <v>4367.992376873088</v>
@@ -7436,7 +7436,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S41" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T41" t="n">
         <v>4807.200536626277</v>
@@ -7445,16 +7445,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L42" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M42" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N42" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O42" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P42" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R42" t="n">
         <v>1762.882278270333</v>
@@ -7573,10 +7573,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L43" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M43" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N43" t="n">
         <v>1823.203308416962</v>
@@ -7585,13 +7585,13 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P43" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q43" t="n">
         <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S43" t="n">
         <v>2700.227703614783</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C44" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E44" t="n">
         <v>1218.961883372208</v>
@@ -7649,19 +7649,19 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>571.4218927017964</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
-        <v>1668.162660091529</v>
+        <v>2502.512952049707</v>
       </c>
       <c r="M44" t="n">
-        <v>2849.334564009999</v>
+        <v>2526.637020757626</v>
       </c>
       <c r="N44" t="n">
-        <v>3999.579968806997</v>
+        <v>2551.151442118177</v>
       </c>
       <c r="O44" t="n">
-        <v>4022.728241750617</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P44" t="n">
         <v>4367.992376873088</v>
@@ -7691,7 +7691,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>1122.964718427331</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L45" t="n">
-        <v>1138.925493421876</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M45" t="n">
-        <v>1157.550965019388</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N45" t="n">
-        <v>1176.669397428267</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O45" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P45" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q45" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7810,10 +7810,10 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220555</v>
       </c>
       <c r="M46" t="n">
-        <v>1371.513837086632</v>
+        <v>1371.513837086633</v>
       </c>
       <c r="N46" t="n">
         <v>1823.203308416962</v>
@@ -7822,7 +7822,7 @@
         <v>2251.583306098094</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.543750200284</v>
+        <v>2606.543750200285</v>
       </c>
       <c r="Q46" t="n">
         <v>2779.896976828331</v>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -8295,25 +8295,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,10 +8371,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8383,16 +8383,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,13 +8462,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8532,22 +8532,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>330.3852793540609</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>135.9602724823098</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>63.21272191057513</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,16 +8930,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1051.016738643726</v>
       </c>
       <c r="O14" t="n">
-        <v>955.178052095695</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9003,13 +9003,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>177.2793615553865</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>198.4715118933794</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>537.0522859030277</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1051.016738643727</v>
+        <v>1051.016738643726</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>537.052285903028</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>540.326901879286</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>404.7487802599477</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>955.1780520956941</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>537.0522859030277</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>578.0380920593707</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>309.4830367038142</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>21.507388784451</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>655.4086274124621</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>756.6928078575975</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>404.7487802599485</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
-        <v>727.7700115332168</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>395.643617783531</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>110.4248494738179</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>955.1780520956931</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>537.0522859030277</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,16 +10826,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O38" t="n">
-        <v>955.1780520956941</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>537.0522859030277</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,10 +11069,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>404.7487802599485</v>
       </c>
       <c r="O41" t="n">
-        <v>955.1780520956956</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>655.4086274124621</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>955.1780520956941</v>
       </c>
       <c r="P44" t="n">
-        <v>328.7955754740542</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>655.4086274124621</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>85.90132644576698</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>77.69152911586569</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.0458864466682</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T16" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>58.38787496468237</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>77.48177684938824</v>
       </c>
       <c r="I19" t="n">
         <v>85.90132644576698</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T19" t="n">
-        <v>59.07711417248521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.826450433232822e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>137.9496946538981</v>
+        <v>130.7064558139247</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
-        <v>77.6915291158666</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
-        <v>77.69152911586704</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>137.9496946538981</v>
+        <v>59.07711417248504</v>
       </c>
       <c r="I28" t="n">
         <v>85.90132644576698</v>
@@ -24649,7 +24649,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
-        <v>77.6915291158666</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>137.9496946538981</v>
+        <v>59.07711417248504</v>
       </c>
       <c r="I37" t="n">
         <v>85.90132644576698</v>
@@ -25360,7 +25360,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
-        <v>77.69152911586704</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.09619179276983</v>
       </c>
       <c r="T40" t="n">
-        <v>77.69152911586681</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.4046626769032</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>77.69152911586704</v>
+        <v>96.09619179276983</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
-        <v>77.69152911586704</v>
+        <v>77.6915291158666</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618875.3732722915</v>
+        <v>618875.3732722914</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722913</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722913</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>618875.3732722914</v>
+        <v>618875.3732722915</v>
       </c>
     </row>
     <row r="15">
@@ -26320,16 +26320,16 @@
         <v>415514.1729150666</v>
       </c>
       <c r="E2" t="n">
-        <v>409563.1547552675</v>
+        <v>409563.1547552671</v>
       </c>
       <c r="F2" t="n">
-        <v>409563.1547552673</v>
+        <v>409563.1547552672</v>
       </c>
       <c r="G2" t="n">
         <v>409563.1547552673</v>
       </c>
       <c r="H2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552671</v>
       </c>
       <c r="I2" t="n">
         <v>409563.1547552673</v>
@@ -26341,13 +26341,13 @@
         <v>409563.1547552673</v>
       </c>
       <c r="L2" t="n">
-        <v>409563.1547552674</v>
+        <v>409563.1547552673</v>
       </c>
       <c r="M2" t="n">
-        <v>409563.1547552673</v>
+        <v>409563.1547552671</v>
       </c>
       <c r="N2" t="n">
-        <v>409563.1547552672</v>
+        <v>409563.1547552671</v>
       </c>
       <c r="O2" t="n">
         <v>409563.1547552673</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449903</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220799.8335736791</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="C4" t="n">
-        <v>220799.8335736791</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="D4" t="n">
-        <v>220799.8335736792</v>
+        <v>220788.7483212382</v>
       </c>
       <c r="E4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="F4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="G4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="H4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="I4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="J4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="K4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="L4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="M4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="N4" t="n">
-        <v>109864.1921368072</v>
+        <v>109840.7778799671</v>
       </c>
       <c r="O4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799672</v>
       </c>
       <c r="P4" t="n">
-        <v>109864.1921368073</v>
+        <v>109840.7778799671</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="F5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="G5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="H5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="J5" t="n">
         <v>78380.64252189653</v>
@@ -26500,7 +26500,7 @@
         <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="N5" t="n">
         <v>78380.64252189653</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6901.749455544857</v>
+        <v>-6890.664203104032</v>
       </c>
       <c r="C6" t="n">
-        <v>135289.551204165</v>
+        <v>135300.6364566059</v>
       </c>
       <c r="D6" t="n">
-        <v>135289.551204165</v>
+        <v>135300.636456606</v>
       </c>
       <c r="E6" t="n">
-        <v>-60947.8501883141</v>
+        <v>-60943.63276424786</v>
       </c>
       <c r="F6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.53752063</v>
       </c>
       <c r="G6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.53752063</v>
       </c>
       <c r="H6" t="n">
-        <v>221318.3200965637</v>
+        <v>221322.5375206299</v>
       </c>
       <c r="I6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.5375206301</v>
       </c>
       <c r="J6" t="n">
-        <v>110303.8547515734</v>
+        <v>110308.0721756398</v>
       </c>
       <c r="K6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.5375206301</v>
       </c>
       <c r="L6" t="n">
-        <v>221318.3200965636</v>
+        <v>221322.5375206301</v>
       </c>
       <c r="M6" t="n">
-        <v>8876.37741557433</v>
+        <v>8880.594839640782</v>
       </c>
       <c r="N6" t="n">
-        <v>221318.3200965634</v>
+        <v>221322.53752063</v>
       </c>
       <c r="O6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.53752063</v>
       </c>
       <c r="P6" t="n">
-        <v>221318.3200965635</v>
+        <v>221322.5375206301</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="F4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="G4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="H4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="I4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="J4" t="n">
         <v>1276.777931166552</v>
@@ -26820,7 +26820,7 @@
         <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="N4" t="n">
         <v>1276.777931166552</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367905</v>
+        <v>34.5203810536791</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201046</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>157.2787425638856</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>353.6379595934744</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11.86370033765851</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>122.6735968424642</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>106.8856919847591</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>99.12156952133313</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>51.58631836451733</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>104.2627093945165</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27913,10 +27913,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>167.723708434756</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -28071,7 +28071,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.372239644026619e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J11" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L11" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K13" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L13" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M13" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J14" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L14" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K16" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L16" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M16" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J17" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L17" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T17" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K19" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L19" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M19" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J20" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L20" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K22" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L22" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M22" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J23" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L23" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T23" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K25" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L25" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M25" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J26" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L26" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T26" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K28" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L28" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M28" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J29" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L29" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T29" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K31" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L31" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M31" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J32" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L32" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T32" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K34" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L34" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M34" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J35" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L35" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K37" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L37" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M37" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J38" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L38" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T38" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K40" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L40" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M40" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J41" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L41" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T41" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K43" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L43" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M43" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208202</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752725</v>
+        <v>1.421233577752727</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565675</v>
+        <v>5.350138655565684</v>
       </c>
       <c r="J44" t="n">
-        <v>11.7783887093656</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304292</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L44" t="n">
-        <v>21.8997991281546</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961536</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833402</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244448</v>
+        <v>23.38209388244452</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480548</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858486</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937353</v>
+        <v>8.717350296937367</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319443</v>
+        <v>3.162344455319448</v>
       </c>
       <c r="T44" t="n">
-        <v>0.6074893188441406</v>
+        <v>0.6074893188441416</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766561</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0742513856626304</v>
+        <v>0.07425138566263052</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943516</v>
+        <v>0.7171120667943528</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805477</v>
+        <v>2.556462181805481</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257551</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775579</v>
+        <v>19.31154788775582</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017856</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184036</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040331</v>
+        <v>9.478124247040347</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527177</v>
+        <v>4.610099190527185</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286138</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559531</v>
+        <v>0.2992851904559536</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067791</v>
+        <v>0.004884959583067799</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384745</v>
+        <v>0.06224986747384755</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311169</v>
+        <v>0.5534579126311178</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304431</v>
+        <v>1.872023287304434</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401015</v>
+        <v>4.401065630401022</v>
       </c>
       <c r="K46" t="n">
-        <v>7.23230278468882</v>
+        <v>7.232302784688833</v>
       </c>
       <c r="L46" t="n">
-        <v>9.25485756970274</v>
+        <v>9.254857569702756</v>
       </c>
       <c r="M46" t="n">
-        <v>9.75794968046865</v>
+        <v>9.757949680468666</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157045</v>
+        <v>9.525927447157061</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485278</v>
+        <v>8.798735813485292</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018784</v>
+        <v>7.528838517018796</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105536</v>
+        <v>5.212577539105545</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778631</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703323</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791663</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00339544731675532</v>
+        <v>0.003395447316755325</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O5" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K5" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
@@ -35015,25 +35015,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888814</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>58.3846844139612</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35103,16 +35103,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35252,22 +35252,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L9" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J11" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L11" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M11" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N11" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O11" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480538</v>
+        <v>856.63271741066</v>
       </c>
       <c r="Q11" t="n">
-        <v>345.371461462646</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R11" t="n">
-        <v>179.5800419666912</v>
+        <v>144.677622779247</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805472</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J12" t="n">
-        <v>70.22784953583268</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465379</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398473</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017857</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P12" t="n">
-        <v>842.1819564856769</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q12" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K13" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L13" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N13" t="n">
-        <v>456.2519912427588</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P13" t="n">
         <v>358.5459031335258</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J14" t="n">
         <v>451.4295881567574</v>
@@ -35650,16 +35650,16 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>1107.818956959325</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M14" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.77878042206</v>
       </c>
       <c r="O14" t="n">
-        <v>978.5601459781396</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P14" t="n">
         <v>856.6327174106605</v>
@@ -35668,7 +35668,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R14" t="n">
-        <v>179.5800419666912</v>
+        <v>179.5800419666921</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973581</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
-        <v>193.4013564993712</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q15" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K16" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L16" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N16" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P16" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q16" t="n">
         <v>175.1042693212594</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J17" t="n">
-        <v>210.2499006027449</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>21.8997991281546</v>
+        <v>1072.916537771882</v>
       </c>
       <c r="M17" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N17" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O17" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q17" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J18" t="n">
         <v>334.8518195103205</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L19" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M19" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N19" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O19" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P19" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q19" t="n">
         <v>175.1042693212594</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J20" t="n">
         <v>451.4295881567574</v>
@@ -36124,7 +36124,7 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
-        <v>1072.916537771882</v>
+        <v>1072.916537771881</v>
       </c>
       <c r="M20" t="n">
         <v>24.3677461696152</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J21" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0422563676816</v>
+        <v>699.5995866973583</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398465</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425508</v>
@@ -36218,10 +36218,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>555.679072360248</v>
+        <v>549.8050261263263</v>
       </c>
       <c r="R21" t="n">
-        <v>122.9664406999611</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K22" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M22" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N22" t="n">
         <v>456.2519912427576</v>
@@ -36352,16 +36352,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J23" t="n">
-        <v>451.4295881567574</v>
+        <v>416.5271689693133</v>
       </c>
       <c r="K23" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.818956959325</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M23" t="n">
         <v>24.3677461696152</v>
@@ -36370,7 +36370,7 @@
         <v>24.76204177833415</v>
       </c>
       <c r="O23" t="n">
-        <v>978.5601459781387</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
         <v>856.6327174106605</v>
@@ -36379,7 +36379,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R23" t="n">
-        <v>179.5800419666921</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J24" t="n">
         <v>334.8518195103205</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K25" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M25" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N25" t="n">
         <v>456.2519912427576</v>
@@ -36531,7 +36531,7 @@
         <v>432.7070683647796</v>
       </c>
       <c r="P25" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q25" t="n">
         <v>175.1042693212594</v>
@@ -36589,25 +36589,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M26" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N26" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
-        <v>601.4201859418154</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
         <v>856.6327174106605</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465379</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398475</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P27" t="n">
-        <v>323.6617947256545</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L28" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M28" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N28" t="n">
         <v>456.2519912427576</v>
@@ -36826,28 +36826,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J29" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K29" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815454</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M29" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N29" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>41.46346494925638</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
         <v>567.0051578243374</v>
@@ -36911,10 +36911,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>667.3985978771159</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
         <v>18.81360767425508</v>
@@ -36932,7 +36932,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L31" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N31" t="n">
         <v>456.2519912427576</v>
@@ -37063,22 +37063,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J32" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K32" t="n">
-        <v>774.3455593006404</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961543</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N32" t="n">
-        <v>1161.864045249493</v>
+        <v>429.5108220382826</v>
       </c>
       <c r="O32" t="n">
         <v>1013.462565165582</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465379</v>
+        <v>699.5995866973583</v>
       </c>
       <c r="L33" t="n">
-        <v>743.8920064772016</v>
+        <v>16.12199494398465</v>
       </c>
       <c r="M33" t="n">
         <v>18.81360767425508</v>
@@ -37160,16 +37160,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017865</v>
       </c>
       <c r="P33" t="n">
-        <v>842.181956485677</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>405.1217420305713</v>
       </c>
       <c r="R33" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.85529306948168</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K34" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L34" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J35" t="n">
-        <v>11.7783887093656</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304293</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M35" t="n">
-        <v>134.7925956434333</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N35" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
-        <v>1013.462565165582</v>
+        <v>978.5601459781378</v>
       </c>
       <c r="P35" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q35" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R35" t="n">
-        <v>179.5800419666912</v>
+        <v>179.5800419666921</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8834047681263</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0422563676814</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
@@ -37394,13 +37394,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775575</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q36" t="n">
         <v>555.679072360248</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.85529306948169</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K37" t="n">
         <v>284.7660952807854</v>
       </c>
       <c r="L37" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
@@ -37479,7 +37479,7 @@
         <v>432.7070683647796</v>
       </c>
       <c r="P37" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q37" t="n">
         <v>175.1042693212594</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J38" t="n">
         <v>451.4295881567574</v>
@@ -37546,16 +37546,16 @@
         <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.818956959325</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M38" t="n">
-        <v>24.3677461696152</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O38" t="n">
-        <v>978.5601459781387</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
         <v>856.6327174106605</v>
@@ -37704,10 +37704,10 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L40" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450275</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N40" t="n">
         <v>456.2519912427576</v>
@@ -37774,28 +37774,28 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J41" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K41" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.818956959325</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M41" t="n">
         <v>24.3677461696152</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833415</v>
+        <v>429.5108220382826</v>
       </c>
       <c r="O41" t="n">
-        <v>978.5601459781401</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q41" t="n">
         <v>567.0051578243374</v>
@@ -37859,10 +37859,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>667.3985978771159</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
         <v>18.81360767425508</v>
@@ -37880,7 +37880,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R42" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,19 +37941,19 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L43" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O43" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P43" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q43" t="n">
         <v>175.1042693212594</v>
@@ -38011,28 +38011,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434278</v>
+        <v>4.937517176434286</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304292</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M44" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961566</v>
       </c>
       <c r="N44" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244468</v>
+        <v>978.5601459781387</v>
       </c>
       <c r="P44" t="n">
-        <v>348.7516516388596</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q44" t="n">
         <v>567.0051578243374</v>
@@ -38096,10 +38096,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K45" t="n">
-        <v>667.3985978771159</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38117,7 +38117,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R45" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,19 +38178,19 @@
         <v>284.7660952807854</v>
       </c>
       <c r="L46" t="n">
-        <v>431.6890815777442</v>
+        <v>431.6890815777443</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O46" t="n">
-        <v>432.7070683647798</v>
+        <v>432.7070683647796</v>
       </c>
       <c r="P46" t="n">
-        <v>358.5459031335254</v>
+        <v>358.5459031335258</v>
       </c>
       <c r="Q46" t="n">
         <v>175.1042693212594</v>
